--- a/downloaded_files/CVES125_Tutorial-35505.xlsx
+++ b/downloaded_files/CVES125_Tutorial-35505.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -96,15 +96,6 @@
     <x:t>SARA</x:t>
   </x:si>
   <x:si>
-    <x:t>1240070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى علاء حسين الشافعى حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Alaa Hussein Elshafey</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240229</x:t>
   </x:si>
   <x:si>
@@ -220,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Marwan Walid Gamal el din Zaki Abou Shebika</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم سمير ماهر مسيحه صليب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Samir Maher Massiha</x:t>
   </x:si>
   <x:si>
     <x:t>1240158</x:t>
@@ -389,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1004,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6661303588</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6665717245</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45906.6647540857</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6647540857</x:v>
+        <x:v>45913.3969315972</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.3969315972</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.6652480671</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6652480671</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45913.4238710995</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.4238710995</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45907.4200115394</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4200115394</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1565,70 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45907.6650471065</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45907.6653497338</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Tutorial-35505.xlsx
+++ b/downloaded_files/CVES125_Tutorial-35505.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,15 +166,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Omar Elsawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم اسامة محمود عبدالقادر يوسف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Osama Mahmoud Abd El Kader Youssef</x:t>
   </x:si>
   <x:si>
     <x:t>1230085</x:t>
@@ -371,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1242,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45913.4238710995</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.4238710995</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45907.4200115394</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4200115394</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1489,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1515,38 +1506,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45907.6653497338</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Tutorial-35505.xlsx
+++ b/downloaded_files/CVES125_Tutorial-35505.xlsx
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1230317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد فؤاد محمد صالح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed mohamed fouad saleh</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230140</x:t>
   </x:si>
   <x:si>
@@ -103,15 +112,6 @@
   </x:si>
   <x:si>
     <x:t>Shahd Waleed Sayed Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240080</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن خالد محمد عبد المنعم الامير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Khaled Elameer</x:t>
   </x:si>
   <x:si>
     <x:t>4230153</x:t>
@@ -753,7 +753,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4150907755</x:v>
+        <x:v>45922.6007690625</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -785,7 +785,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6778201042</x:v>
+        <x:v>45907.4150907755</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -817,7 +817,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6770612269</x:v>
+        <x:v>45907.6778201042</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -849,7 +849,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6705173958</x:v>
+        <x:v>45907.6770612269</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -881,7 +881,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6652193634</x:v>
+        <x:v>45907.6705173958</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,7 +913,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.6652193634</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,7 +945,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +977,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1009,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>

--- a/downloaded_files/CVES125_Tutorial-35505.xlsx
+++ b/downloaded_files/CVES125_Tutorial-35505.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>ahmed mohamed fouad saleh</x:t>
   </x:si>
   <x:si>
-    <x:t>4230140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد نبيل احمد سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Nabil</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240286</x:t>
   </x:si>
   <x:si>
@@ -60,15 +51,6 @@
     <x:t>Ahmed mamdouh ahmed mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1240040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيتر اشعياء شحاته فهمي يونان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240049</x:t>
   </x:si>
   <x:si>
@@ -184,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عبدالرحيم سالم عبدالهادي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHAMED ABDALRAHIM SALEM ABDALHADY</x:t>
   </x:si>
   <x:si>
     <x:t>1230109</x:t>
@@ -362,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -785,7 +776,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4150907755</x:v>
+        <x:v>45907.6778201042</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -817,7 +808,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6778201042</x:v>
+        <x:v>45907.6705173958</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -849,7 +840,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6770612269</x:v>
+        <x:v>45907.6652193634</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -881,7 +872,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6705173958</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6652193634</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45906.6647540857</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45913.3969315972</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6647540857</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.3969315972</x:v>
+        <x:v>45907.6652480671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6652480671</x:v>
+        <x:v>45913.4238710995</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.4238710995</x:v>
+        <x:v>45927.4934474537</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45907.4200115394</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4200115394</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1448,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1474,38 +1465,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45907.6653497338</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Tutorial-35505.xlsx
+++ b/downloaded_files/CVES125_Tutorial-35505.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed mamdouh ahmed mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حبيبه عصام كامل على عقل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba essam kamel</x:t>
   </x:si>
   <x:si>
     <x:t>1240311</x:t>
@@ -353,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -808,7 +799,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6705173958</x:v>
+        <x:v>45907.6652193634</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -840,7 +831,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6652193634</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -872,7 +863,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -904,7 +895,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -936,7 +927,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +959,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45906.6647540857</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6647540857</x:v>
+        <x:v>45913.3969315972</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.3969315972</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.6652480671</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6652480671</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45913.4238710995</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.4238710995</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45927.4934474537</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4934474537</x:v>
+        <x:v>45907.4200115394</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4200115394</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1433,38 +1424,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45907.6653497338</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Tutorial-35505.xlsx
+++ b/downloaded_files/CVES125_Tutorial-35505.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد محمد فؤاد محمد صالح</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed fouad saleh</x:t>
+    <x:t>Ahmed Mohamed Fouad Mohamed Saleh</x:t>
   </x:si>
   <x:si>
     <x:t>1240286</x:t>
